--- a/tests/output/3_b_1_ING Orange Everyday Account #6291__Stmt_output.xlsx
+++ b/tests/output/3_b_1_ING Orange Everyday Account #6291__Stmt_output.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="All_Text" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table_1_Page_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table_2_Page_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table_3_Page_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="All_Text_Fallback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table_pdfplumber_1_P1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table_pdfplumber_2_P2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table_pdfplumber_3_P3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +470,7 @@
 Page 1 of 3 | Statement continued over
 1-I
 1-S
-0-E\n\n--- End of Page 1 ---\n\nTransactions (continued)
+0-ETransactions (continued)
 Date Details Money out $ Money in $ Balance $
 12/11/2024 Visa Purchase - Receipt 115822 -31.76 34.44
 PAYPAL *UPSKILLVERS 4029357733
@@ -539,7 +539,7 @@
 Page 2 of 3 | Statement continued over
 2-I
 1-S
-0-E\n\n--- End of Page 2 ---\n\nTransactions (continued)
+0-ETransactions (continued)
 Date Details Money out $ Money in $ Balance $
 31/12/2024 Internal Transfer - Receipt 696857 -1,600.00 282.33
 To Savings Maximiser 820191728
@@ -593,7 +593,7 @@
 GPO Box 2682 Sydney NSW Australia 2001 | Phone 133 464 | ing.com.au
 3-I
 2-S
-0-E\n\n--- End of Page 3 ---\n\n</t>
+0-E</t>
         </is>
       </c>
     </row>
